--- a/src/assets/docs/plan.xlsx
+++ b/src/assets/docs/plan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\диплом electron\mm\magistrant-master\src\assets\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863932B-5E91-46BC-B6EF-DB6928536BAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,11 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -698,9 +699,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1129,9 +1130,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1220,9 +1221,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,66 +1287,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1328,6 +1326,168 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1337,200 +1497,47 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1544,19 +1551,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1591,7 +1595,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="БГУИР">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77675DDD-0264-479B-AA79-651C696E268E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77675DDD-0264-479B-AA79-651C696E268E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,18 +1922,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1941,63 +1945,63 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2030,12 +2034,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2044,10 +2048,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -2056,10 +2060,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2068,8 +2072,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
     </row>
@@ -2080,12 +2084,12 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -2112,42 +2116,42 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -2162,30 +2166,30 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -2200,18 +2204,18 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -2226,18 +2230,18 @@
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -2252,18 +2256,18 @@
       <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -2278,30 +2282,30 @@
       <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -2309,11 +2313,11 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
@@ -2328,18 +2332,18 @@
       <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
     </row>
     <row r="33" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -2347,11 +2351,11 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
     </row>
     <row r="34" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -2359,39 +2363,39 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
     </row>
     <row r="35" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -2406,116 +2410,116 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="41" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
     </row>
     <row r="43" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
@@ -2530,22 +2534,22 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="4"/>
       <c r="F47" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G47" s="24"/>
-      <c r="H47" s="45" t="s">
+      <c r="H47" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
@@ -2557,22 +2561,22 @@
         <v>82</v>
       </c>
       <c r="G48" s="24"/>
-      <c r="H48" s="46" t="s">
+      <c r="H48" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -2597,11 +2601,11 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
@@ -2619,19 +2623,20 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A15:J17"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="D1:J5"/>
-    <mergeCell ref="G8:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
     <mergeCell ref="F42:J43"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H48:J48"/>
@@ -2646,20 +2651,19 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="F28:J30"/>
     <mergeCell ref="F32:J34"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A15:J17"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="D1:J5"/>
+    <mergeCell ref="G8:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2669,7 +2673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2679,42 +2683,42 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -2729,510 +2733,510 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
     </row>
     <row r="40" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
     </row>
     <row r="41" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
     </row>
     <row r="42" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3246,7 +3250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3261,30 +3265,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3299,13 +3303,13 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
@@ -3313,52 +3317,52 @@
       <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -3373,10 +3377,10 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -3387,52 +3391,52 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -3447,11 +3451,11 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -3461,40 +3465,40 @@
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
@@ -3509,11 +3513,11 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -3523,40 +3527,40 @@
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
@@ -3571,11 +3575,11 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -3585,40 +3589,40 @@
       <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -3633,234 +3637,234 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
     </row>
     <row r="49" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
@@ -3897,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3907,18 +3911,18 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -3933,474 +3937,474 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
     </row>
     <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
     </row>
     <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
     </row>
     <row r="32" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
     </row>
     <row r="34" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
     </row>
     <row r="35" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
     </row>
     <row r="40" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
     </row>
     <row r="41" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
@@ -4475,7 +4479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -4494,44 +4498,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
@@ -4546,418 +4550,418 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="127" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="127" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="129"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="130"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="112"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="103"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="104"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="97"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="113"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="113"/>
     </row>
     <row r="18" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="104"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="114"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="95"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="109"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="110"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="110"/>
     </row>
     <row r="22" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="119"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="113"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="103"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="113"/>
     </row>
     <row r="26" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="114"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="110"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="110"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="97"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="110"/>
     </row>
     <row r="30" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="113"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="106"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="111"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="107"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="101"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="119"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="103"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="113"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="113"/>
     </row>
     <row r="34" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="104"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="114"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="110"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="109"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="111"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="97"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="110"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="97"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="110"/>
     </row>
     <row r="38" spans="1:10" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="112"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="99"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="124"/>
     </row>
     <row r="39" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
@@ -4972,13 +4976,13 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -4989,10 +4993,10 @@
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="120"/>
+      <c r="E41" s="76"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -5012,13 +5016,13 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -5029,10 +5033,10 @@
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="117" t="s">
+      <c r="D44" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -5052,30 +5056,30 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
     </row>
     <row r="47" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
       <c r="I47" s="12" t="s">
         <v>35</v>
       </c>
@@ -5085,28 +5089,28 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="79" t="s">
+      <c r="B49" s="127"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
       <c r="H49" s="14"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -5124,13 +5128,13 @@
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="4"/>
       <c r="G51" s="17"/>
       <c r="H51" s="16" t="s">
@@ -5143,10 +5147,10 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="72"/>
+      <c r="E52" s="125"/>
       <c r="F52" s="18"/>
       <c r="G52" s="19" t="s">
         <v>34</v>
@@ -5159,6 +5163,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="F23:G26"/>
+    <mergeCell ref="F27:G30"/>
+    <mergeCell ref="F31:G34"/>
+    <mergeCell ref="F35:G38"/>
+    <mergeCell ref="H35:J38"/>
+    <mergeCell ref="H31:J34"/>
+    <mergeCell ref="H27:J30"/>
+    <mergeCell ref="H23:J26"/>
+    <mergeCell ref="A31:E34"/>
+    <mergeCell ref="A35:E38"/>
+    <mergeCell ref="A23:E26"/>
+    <mergeCell ref="A27:E30"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="H7:J10"/>
+    <mergeCell ref="F19:G22"/>
+    <mergeCell ref="H19:J22"/>
+    <mergeCell ref="A15:E18"/>
+    <mergeCell ref="F15:G18"/>
+    <mergeCell ref="H15:J18"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -5175,34 +5207,6 @@
     <mergeCell ref="F7:G10"/>
     <mergeCell ref="F11:G14"/>
     <mergeCell ref="H11:J14"/>
-    <mergeCell ref="H7:J10"/>
-    <mergeCell ref="F19:G22"/>
-    <mergeCell ref="H19:J22"/>
-    <mergeCell ref="A15:E18"/>
-    <mergeCell ref="F15:G18"/>
-    <mergeCell ref="H15:J18"/>
-    <mergeCell ref="A31:E34"/>
-    <mergeCell ref="A35:E38"/>
-    <mergeCell ref="A23:E26"/>
-    <mergeCell ref="A27:E30"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="F23:G26"/>
-    <mergeCell ref="F27:G30"/>
-    <mergeCell ref="F31:G34"/>
-    <mergeCell ref="F35:G38"/>
-    <mergeCell ref="H35:J38"/>
-    <mergeCell ref="H31:J34"/>
-    <mergeCell ref="H27:J30"/>
-    <mergeCell ref="H23:J26"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:G49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5211,7 +5215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
@@ -5233,18 +5237,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5259,58 +5263,58 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -5326,10 +5330,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -5339,59 +5343,59 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="136"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="32"/>
       <c r="E12" s="15"/>
       <c r="F12" s="31"/>
       <c r="G12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5406,10 +5410,10 @@
         <v>34</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="133"/>
+      <c r="I13" s="136"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5425,58 +5429,58 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="139"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -5492,10 +5496,10 @@
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -5505,59 +5509,59 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="136"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="32"/>
       <c r="E24" s="15"/>
       <c r="F24" s="31"/>
       <c r="G24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5572,10 +5576,10 @@
         <v>34</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="133" t="s">
+      <c r="H25" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="133"/>
+      <c r="I25" s="136"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5591,58 +5595,58 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="139"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
@@ -5658,10 +5662,10 @@
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -5671,59 +5675,59 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="138"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="138"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
     </row>
     <row r="34" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="136" t="s">
+      <c r="A35" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="136"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="137" t="s">
+      <c r="D35" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="32"/>
       <c r="E36" s="15"/>
       <c r="F36" s="31"/>
       <c r="G36" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5738,10 +5742,10 @@
         <v>34</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="133" t="s">
+      <c r="H37" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="133"/>
+      <c r="I37" s="136"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5757,58 +5761,58 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="135"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="135"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
@@ -5824,10 +5828,10 @@
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="36"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -5837,59 +5841,59 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
     </row>
     <row r="46" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="136"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="137" t="s">
+      <c r="D47" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="32"/>
       <c r="E48" s="15"/>
       <c r="F48" s="31"/>
       <c r="G48" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -5904,34 +5908,26 @@
         <v>34</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="133" t="s">
+      <c r="H49" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I49" s="133"/>
+      <c r="I49" s="136"/>
       <c r="J49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A3:J4"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A9:J10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A21:J22"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A15:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A39:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A45:J46"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="A33:J34"/>
@@ -5945,18 +5941,26 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A39:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A45:J46"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="A21:J22"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A15:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A9:J10"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5965,7 +5969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -5986,58 +5990,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -6053,10 +6057,10 @@
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -6066,59 +6070,59 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="136"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="32"/>
       <c r="E10" s="15"/>
       <c r="F10" s="31"/>
       <c r="G10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6133,10 +6137,10 @@
         <v>34</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="133"/>
+      <c r="I11" s="136"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6152,58 +6156,58 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -6219,10 +6223,10 @@
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -6232,59 +6236,59 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="136"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="32"/>
       <c r="E22" s="15"/>
       <c r="F22" s="31"/>
       <c r="G22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6299,10 +6303,10 @@
         <v>34</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="133" t="s">
+      <c r="H23" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="133"/>
+      <c r="I23" s="136"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6318,58 +6322,58 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
     </row>
     <row r="26" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="139"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -6385,10 +6389,10 @@
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="36"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -6398,59 +6402,59 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="138"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
     </row>
     <row r="32" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="136"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="32"/>
       <c r="E34" s="15"/>
       <c r="F34" s="31"/>
       <c r="G34" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6465,10 +6469,10 @@
         <v>34</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="133" t="s">
+      <c r="H35" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="133"/>
+      <c r="I35" s="136"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6484,58 +6488,58 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
     </row>
     <row r="38" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="139"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
@@ -6551,10 +6555,10 @@
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -6564,59 +6568,59 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
     </row>
     <row r="44" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="136"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="32"/>
       <c r="E46" s="15"/>
       <c r="F46" s="31"/>
       <c r="G46" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6631,10 +6635,10 @@
         <v>34</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="133" t="s">
+      <c r="H47" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="133"/>
+      <c r="I47" s="136"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -6651,12 +6655,33 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A7:J8"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A43:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A37:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A25:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:J28"/>
     <mergeCell ref="A19:J20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A9:B9"/>
@@ -6668,33 +6693,12 @@
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:J16"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A25:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A43:J44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A37:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A7:J8"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6703,7 +6707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6725,30 +6729,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -6763,45 +6767,45 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="10" t="s">
         <v>35</v>
       </c>
@@ -6811,13 +6815,13 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6839,13 +6843,13 @@
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6861,19 +6865,19 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="30"/>
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
       <c r="G11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6888,10 +6892,10 @@
         <v>34</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -6919,30 +6923,30 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
     </row>
     <row r="16" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -6958,49 +6962,49 @@
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -7011,52 +7015,52 @@
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -7064,12 +7068,12 @@
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
       <c r="F26" s="24"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -7079,10 +7083,10 @@
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="142"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -7104,42 +7108,42 @@
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -7156,17 +7160,17 @@
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="38" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
@@ -7183,19 +7187,19 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -7203,15 +7207,15 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="125"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="72" t="s">
+      <c r="H36" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="72"/>
+      <c r="I36" s="125"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -7336,6 +7340,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J23"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A15:J16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="H11:I11"/>
@@ -7345,27 +7370,6 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A15:J16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J23"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:H33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
